--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_19-48.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_19-48.xlsx
@@ -53,6 +53,9 @@
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
+    <t>AQUA PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -86,7 +89,7 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>CETAL 500MG 20 TAB</t>
@@ -344,6 +347,12 @@
     <t>VERSERC 24MG 30 TAB</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>VIRECTA 100 MG 12 F.C.TABS.</t>
   </si>
   <si>
@@ -365,25 +374,28 @@
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
+    <t>بيبي جوي رقم 5</t>
+  </si>
+  <si>
     <t>جل هيركود انبوب 100مل</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>-1:0</t>
+    <t>-3:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
     <t xml:space="preserve">فرش  فوكس عرض</t>
   </si>
   <si>
     <t>كريم فاتيكا الحبه السوداء 210 جم</t>
-  </si>
-  <si>
-    <t>7:0</t>
   </si>
   <si>
     <t>معجون اسنان بارودونتكس 50مل</t>
@@ -1060,13 +1072,13 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
@@ -1078,7 +1090,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1086,17 +1098,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1104,7 +1116,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1112,13 +1124,13 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
@@ -1144,11 +1156,11 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1164,17 +1176,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>19.899999999999999</v>
+        <v>78</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1182,7 +1194,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1190,17 +1202,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>72</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1222,7 +1234,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -1242,13 +1254,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
@@ -1260,7 +1272,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1268,17 +1280,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1286,7 +1298,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1294,17 +1306,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1320,17 +1332,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1338,7 +1350,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1346,17 +1358,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1372,17 +1384,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1398,13 +1410,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>-200</v>
+        <v>120</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1416,7 +1428,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1424,17 +1436,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>42</v>
+        <v>-200</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1442,7 +1454,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1450,17 +1462,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1468,7 +1480,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1476,17 +1488,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1502,13 +1514,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1528,17 +1540,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1554,17 +1566,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1580,17 +1592,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1606,13 +1618,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1624,7 +1636,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1632,17 +1644,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1658,17 +1670,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>30.079999999999998</v>
+        <v>55</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1684,13 +1696,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>66</v>
+        <v>30.079999999999998</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1710,17 +1722,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1736,17 +1748,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1762,17 +1774,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1788,17 +1800,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1814,17 +1826,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1832,7 +1844,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1840,17 +1852,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1866,13 +1878,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1892,17 +1904,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1918,13 +1930,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1936,7 +1948,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1944,7 +1956,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -1970,17 +1982,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1996,17 +2008,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2014,7 +2026,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2022,17 +2034,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2048,13 +2060,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2074,17 +2086,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2100,17 +2112,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2126,17 +2138,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2144,7 +2156,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2152,17 +2164,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2178,17 +2190,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2196,7 +2208,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2204,17 +2216,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2222,7 +2234,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2230,17 +2242,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2256,17 +2268,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2282,13 +2294,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>21.559999999999999</v>
+        <v>75</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2308,13 +2320,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>28</v>
+        <v>21.559999999999999</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2334,17 +2346,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2360,13 +2372,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2378,7 +2390,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2386,17 +2398,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2412,17 +2424,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2438,17 +2450,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2456,7 +2468,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2464,17 +2476,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2490,17 +2502,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2516,17 +2528,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2542,17 +2554,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2568,13 +2580,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2594,17 +2606,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>58</v>
+        <v>230</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2620,17 +2632,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2646,17 +2658,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2672,17 +2684,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2690,7 +2702,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2698,17 +2710,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>68.310000000000002</v>
+        <v>84</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2724,13 +2736,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>35</v>
+        <v>68.310000000000002</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2750,13 +2762,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2776,17 +2788,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2802,17 +2814,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2828,13 +2840,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2854,17 +2866,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2880,17 +2892,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>531</v>
+        <v>41</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2906,17 +2918,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>-96</v>
+        <v>531</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2932,17 +2944,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>11</v>
+        <v>-96</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2958,17 +2970,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2984,13 +2996,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3010,13 +3022,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3036,13 +3048,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3062,17 +3074,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>14.67</v>
+        <v>120</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3080,7 +3092,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3088,17 +3100,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>34</v>
+        <v>25.739999999999998</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3114,17 +3126,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>86</v>
+        <v>14.67</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3132,7 +3144,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3140,17 +3152,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3158,7 +3170,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3166,17 +3178,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>192</v>
+        <v>86</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3184,7 +3196,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3192,17 +3204,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3210,7 +3222,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3218,17 +3230,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3236,7 +3248,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3244,17 +3256,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3276,11 +3288,11 @@
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>-4</v>
+        <v>375</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3302,7 +3314,7 @@
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
@@ -3328,11 +3340,11 @@
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3348,17 +3360,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>80</v>
+        <v>-4</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3374,51 +3386,155 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="97" ht="26.25" customHeight="1">
-      <c r="K97" s="10">
-        <v>5260.5200000000004</v>
-      </c>
-      <c r="L97" s="10"/>
-      <c r="M97" s="10"/>
-      <c r="N97" s="10"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="11">
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="6">
+        <v>94</v>
+      </c>
+      <c t="s" r="B97" s="7">
         <v>127</v>
       </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c t="s" r="F98" s="12">
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c t="s" r="H97" s="8">
+        <v>12</v>
+      </c>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="9">
+        <v>40</v>
+      </c>
+      <c r="M97" s="9"/>
+      <c t="s" r="N97" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" ht="25.5" customHeight="1">
+      <c r="A98" s="6">
+        <v>95</v>
+      </c>
+      <c t="s" r="B98" s="7">
         <v>128</v>
       </c>
-      <c r="G98" s="12"/>
-      <c r="H98" s="13"/>
-      <c t="s" r="I98" s="14">
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c t="s" r="H98" s="8">
+        <v>113</v>
+      </c>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="9">
+        <v>75</v>
+      </c>
+      <c r="M98" s="9"/>
+      <c t="s" r="N98" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" ht="24.75" customHeight="1">
+      <c r="A99" s="6">
+        <v>96</v>
+      </c>
+      <c t="s" r="B99" s="7">
         <v>129</v>
       </c>
-      <c r="J98" s="14"/>
-      <c r="K98" s="14"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="14"/>
-      <c r="N98" s="14"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c t="s" r="H99" s="8">
+        <v>76</v>
+      </c>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="9">
+        <v>80</v>
+      </c>
+      <c r="M99" s="9"/>
+      <c t="s" r="N99" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" ht="25.5" customHeight="1">
+      <c r="A100" s="6">
+        <v>97</v>
+      </c>
+      <c t="s" r="B100" s="7">
+        <v>130</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c t="s" r="H100" s="8">
+        <v>9</v>
+      </c>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="9">
+        <v>20</v>
+      </c>
+      <c r="M100" s="9"/>
+      <c t="s" r="N100" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="K101" s="10">
+        <v>5850.2600000000002</v>
+      </c>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="11">
+        <v>131</v>
+      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c t="s" r="F102" s="12">
+        <v>132</v>
+      </c>
+      <c r="G102" s="12"/>
+      <c r="H102" s="13"/>
+      <c t="s" r="I102" s="14">
+        <v>133</v>
+      </c>
+      <c r="J102" s="14"/>
+      <c r="K102" s="14"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="290">
+  <mergeCells count="302">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3705,10 +3821,22 @@
     <mergeCell ref="B96:G96"/>
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
-    <mergeCell ref="K97:N97"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="I98:N98"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="K101:N101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="I102:N102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
